--- a/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Edad-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>31.17499450422428</v>
+        <v>30.57060166874206</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>48.04158701840312</v>
+        <v>48.74978357234482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43.25761020014888</v>
+        <v>42.83351443851933</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>57.67369462034345</v>
+        <v>59.32391110452599</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>78.95036780697319</v>
+        <v>80.61700838716904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65.86346557011917</v>
+        <v>64.35121476705453</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>42.67825339744935</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>48.13645397521573</v>
+        <v>48.13645397521572</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45.36196971459095</v>
+        <v>45.36196971459096</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>33.50975902616465</v>
+        <v>32.9302005839324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>38.54310964941367</v>
+        <v>38.27175451541183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38.19639497636682</v>
+        <v>38.50653986581694</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.64798432061607</v>
+        <v>53.09613196637751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>69.50418336226596</v>
+        <v>70.66113241986501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>55.16647908779639</v>
+        <v>56.67205176936193</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>28.17425915469583</v>
+        <v>28.65368238157368</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>26.65942767630158</v>
+        <v>27.08711396853226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.03211134616681</v>
+        <v>29.32264501857378</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>40.61374524966569</v>
+        <v>39.9485575495312</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>37.74514577634765</v>
+        <v>38.23097524478825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37.37201951604163</v>
+        <v>37.54179981485391</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>40.50795953202829</v>
+        <v>40.50795953202828</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>35.09695793907788</v>
+        <v>35.09695793907787</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37.97672192686579</v>
+        <v>37.97672192686581</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>34.83126501891185</v>
+        <v>34.93966205348645</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.70611955015902</v>
+        <v>31.1141113711684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34.34492578939976</v>
+        <v>34.3717905718859</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.84306663382116</v>
+        <v>48.84898837132675</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.01781818942553</v>
+        <v>40.14178754988225</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>42.30711888943197</v>
+        <v>42.66879506606944</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>35.4538626666147</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>32.03052231199045</v>
+        <v>32.03052231199046</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>34.13915071656123</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>31.20009266604979</v>
+        <v>31.48903658707616</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>27.50900901229448</v>
+        <v>27.71068101389516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31.37921640293192</v>
+        <v>31.12489608236438</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>40.06207520336082</v>
+        <v>40.11987473270536</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>37.41825209791324</v>
+        <v>37.40351021280959</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.6974364200437</v>
+        <v>37.5476370917466</v>
       </c>
     </row>
     <row r="19">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>37.67297329013791</v>
+        <v>37.67297329013792</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>32.66979813935992</v>
+        <v>32.66979813935991</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>35.4601982593304</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>33.249404978266</v>
+        <v>32.57140739833751</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>28.53162758631607</v>
+        <v>28.51237382953431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31.96303190421719</v>
+        <v>32.25928872994033</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>43.41889023341201</v>
+        <v>43.18933791182386</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>37.8836261369589</v>
+        <v>37.37368766489758</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39.00870335991132</v>
+        <v>39.18293322192674</v>
       </c>
     </row>
     <row r="22">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>35.92465273299019</v>
+        <v>35.98295221439329</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>33.47426473966395</v>
+        <v>33.56727468294211</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35.6428045529742</v>
+        <v>35.67003252721685</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45.75391799069818</v>
+        <v>46.11562510702918</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>42.09609941261213</v>
+        <v>42.1587221616637</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42.62196855794657</v>
+        <v>42.46068955503306</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +951,7 @@
         <v>37.51314009119479</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38.00974533433966</v>
+        <v>38.00974533433967</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>36.09333210673423</v>
+        <v>36.21181734984225</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>35.10217169719041</v>
+        <v>35.2512306707311</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>36.36346386226522</v>
+        <v>36.39900466805397</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>40.74831184964683</v>
+        <v>40.92016884620477</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>40.2034763140684</v>
+        <v>40.12369419331836</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>40.09760914575283</v>
+        <v>39.83051729213531</v>
       </c>
     </row>
     <row r="28">
